--- a/semantic_matching_results.xlsx
+++ b/semantic_matching_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,406 +453,976 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> buff gel</t>
+          <t>Toilet clogged</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bath gel</t>
+          <t>Level 2 Toilet Rubbish to Clear</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6707999706268311</v>
+        <v>0.6366999745368958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>set up the bait rail</t>
+          <t xml:space="preserve">Shower Glass Door </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tape to seal box</t>
+          <t>Entrance Glass Door to Clean</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4758999943733215</v>
+        <v>0.7742999792098999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  my bag rack is loose</t>
+          <t>Tissue paper</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trash Bag</t>
+          <t>Facial tissue</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5766000151634216</v>
+        <v>0.5741999745368958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  no  dnd light showing</t>
+          <t>Swimming Pool Area to Clean</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Light Dimmer Not Functioning</t>
+          <t>Pool Furniture to Clean</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5509999990463257</v>
+        <v>0.7921000123023987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>peppermint tea</t>
+          <t>Standing lamp faulty</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chamomile tea</t>
+          <t>Bedside Reading Lamp Faulty</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6674000024795532</v>
+        <v>0.6547999978065491</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  hair dryer</t>
+          <t>Sofa Bed - To Set up</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hair dryer not working</t>
+          <t>Bed Rail- To Set up</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9121000170707703</v>
+        <v>0.6121000051498413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  my basin tap is loose</t>
+          <t>USB-C charging cable</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basin Tap Loose</t>
+          <t>Charging cable for iPhone</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9185000061988831</v>
+        <v>0.7261000275611877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  pond vacuum</t>
+          <t>Shower Gel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pond Water Low Level</t>
+          <t>Bath gel</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6601999998092651</v>
+        <v>0.8895999789237976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  no space bar counter</t>
+          <t>Toothpicks</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bar Counter High Chair Defective</t>
+          <t>Dental kit</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6266000270843506</v>
+        <v>0.5911999940872192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> air band dirty</t>
+          <t>Tape to seal box</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Air con Grill Dirty</t>
+          <t>Hanger - Clip</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6209999918937683</v>
+        <v>0.5217999815940857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> air con grill is loose</t>
+          <t>Urinal Flushes Non-stop</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Air con Grill Loose</t>
+          <t>Level 2 Toilet Rubbish to Clear</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9781000018119812</v>
+        <v>0.4429000020027161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Heineken</t>
+          <t>Wall socket covers</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sweetener Sachet</t>
+          <t>Entrance Wall Socket</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3255999982357025</v>
+        <v>0.8023999929428101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AC duct border to repaint</t>
+          <t>Toilet Seat Broken</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Desk for Repaint</t>
+          <t>Bathroom door faulty</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5903000235557556</v>
+        <v>0.6317999958992004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  fan body needs paint job</t>
+          <t>Wash Basin Leaking</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ceiling Painting</t>
+          <t>Basin Tap Loose</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4948999881744385</v>
+        <v>0.7264999747276306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> blu tooth liight</t>
+          <t>Toilet Bowl to Clean</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dental kit</t>
+          <t>Level 2 Toilet Rubbish to Clear</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5746999979019165</v>
+        <v>0.6516000032424927</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veuve Clicquot Brut NV  </t>
+          <t>Sugar sachet - white</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Loofah</t>
+          <t>Brown Sugar</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2937999963760376</v>
+        <v>0.6055999994277954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BT</t>
+          <t>Toilet is leaking</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Express laundry service</t>
+          <t>Bathroom Ceiling Leaking</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2673999965190887</v>
+        <v>0.6870999932289124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  main lobby cleaning</t>
+          <t>Shower head loose</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2nd Floor Guest Lift Lobby to Clean</t>
+          <t>Handheld Shower Head Holder Loose</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6998999714851379</v>
+        <v>0.8604999780654907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bathroom crumb polish</t>
+          <t>Vanity kit</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cleaning of Bathroom</t>
+          <t>Dental kit</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6427000164985657</v>
+        <v>0.5317000150680542</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> door glass strip is broken</t>
+          <t>Sprinkler leaking</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glass Wall - Broken or Cracked</t>
+          <t>Rain Showerhead Leaking</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7461000084877014</v>
+        <v>0.6552000045776367</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> add fresh paint</t>
+          <t>Vanity Mirror Light not Working</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Desk for Repaint</t>
+          <t>Broken Mirror / Glass panel</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5055999755859375</v>
+        <v>0.6420999765396118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  darjeeling tebags</t>
+          <t>Toilet light is out of order</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tea bags</t>
+          <t>Bathroom lights are out of order</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4634000062942505</v>
+        <v>0.833299994468689</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> add grout to tile corner</t>
+          <t>Writing Table Light Fused</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Entrance Wall Socket</t>
+          <t>Hanging Light Fused</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4327999949455261</v>
+        <v>0.7206000089645386</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  fan vent in kitchen</t>
+          <t>Toothbrush set</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Exhaust Fan</t>
+          <t>Dental floss</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6567999720573425</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  gas burner</t>
+          <t>WIFI - Assist guest with connection</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Air conditioner is faulty</t>
+          <t>Cannot connect to hotel WIFI</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4805000126361847</v>
+        <v>0.6240000128746033</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bed ceiling repaint</t>
+          <t>Shower drainage stuck</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bedroom Ceiling Light Flickering</t>
+          <t>Drainage Clogged</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6807000041007996</v>
+        <v>0.6962000131607056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Writing Table Light Fused</t>
+          <t>TV remote control is faulty</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Writing Table Light Fused</t>
+          <t>Air conditioner is faulty</t>
         </is>
       </c>
       <c r="C28" t="n">
+        <v>0.4656000137329102</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Strings to tie packages</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Extension cord</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4772000014781952</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Toilet flush button/lever is not working</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Replenish Toilet Paper</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5299000144004822</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Vacuum Cleaner to Fix</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Entrance Rug to Vacuum</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6201000213623047</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Shower Head Broken</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Handheld Shower Head Leaking</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8098000288009644</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Shower Curtain</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Shower Curtain</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Trash Bag</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hot water bag</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6520000100135803</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TV No Picture</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Room lights are not working</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4205000102519989</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TV picture not clear</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Room lights are not working</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3959999978542328</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Vacuuming</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Corridor Carpet to Vacuum</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6855000257492065</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sofa Bed - To Remove</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Bed Rail - To Remove</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6521000266075134</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Smoke Detector</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Air con Filter to Change</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4648999869823456</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TV remote control missing</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Foldable Director Chair Screw Loose / Missing</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3704999983310699</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Writing paper</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Newspaper</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.6122000217437744</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TV No Power Supply </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Power socket no power</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6040999889373779</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Urinal Clogged</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Drainage Clogged</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5857999920845032</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TV no sound</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Room lights are not working</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4388000071048737</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>The fridge or mini bar is not working</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Minibar Fridge Noisy</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7613000273704529</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Weighting scale</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bathroom scale</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5486000180244446</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sweetener Sachet</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Creamer sachets</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.6176999807357788</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Wake up call</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1st Wake up call </t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8837000131607056</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Soap Dispenser Faulty</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Refill Hand Soap</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.7153999805450439</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Smart Bed Faulty / Noisy</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Bedside Reading Lamp Faulty</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5644999742507935</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tea cups</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Additional Coffee cups</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8014000058174133</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Toilet Roll Holder Loose</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Handheld Shower Head Holder Loose</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.654699981212616</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Towel railing faulty</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Balcony door faulty</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.651199996471405</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Stirrer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Kettle</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5145999789237976</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Techno Wall Socket No Power</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Power socket no power</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.7213000059127808</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Tea bags</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Chamomile tea</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5813000202178955</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Straws</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Bath salt</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4444000124931335</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Cutlery</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.3980999886989594</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Towels refresh</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Replenish Gym Towels</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.796500027179718</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Vanity Shelf Loose</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Handheld Shower Head Holder Loose</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5393000245094299</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sprinkler burst</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hose reel burst</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.6110000014305115</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Travel power adapter</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Request for power adapter</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.7278000116348267</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sugar Sachet - Raw</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Brown Sugar</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5881000161170959</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Shower Dripping</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Low water pressure from shower</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7621999979019165</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Slippers</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Baby Diapers</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5058000087738037</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Vanity Counter to Clean</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Cleaning of Bathroom</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.614799976348877</v>
       </c>
     </row>
   </sheetData>
